--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Kremen1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Kremen1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H2">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I2">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J2">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.428211999999999</v>
+        <v>3.187097666666667</v>
       </c>
       <c r="N2">
-        <v>13.284636</v>
+        <v>9.561293000000001</v>
       </c>
       <c r="O2">
-        <v>0.1639625840090593</v>
+        <v>0.07264827682158614</v>
       </c>
       <c r="P2">
-        <v>0.1840494688652294</v>
+        <v>0.09004258080252311</v>
       </c>
       <c r="Q2">
-        <v>0.3233509923813333</v>
+        <v>12.96113262301433</v>
       </c>
       <c r="R2">
-        <v>2.910158931432</v>
+        <v>116.650193607129</v>
       </c>
       <c r="S2">
-        <v>0.002869979974382268</v>
+        <v>0.0713963962355442</v>
       </c>
       <c r="T2">
-        <v>0.003229814661974596</v>
+        <v>0.08849096025823101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H3">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I3">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J3">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>28.287022</v>
       </c>
       <c r="O3">
-        <v>0.3491261048508298</v>
+        <v>0.2149294457051256</v>
       </c>
       <c r="P3">
-        <v>0.3918971791834611</v>
+        <v>0.2663903788010418</v>
       </c>
       <c r="Q3">
-        <v>0.6885124014848888</v>
+        <v>38.34542500184067</v>
       </c>
       <c r="R3">
-        <v>6.196611613363999</v>
+        <v>345.108825016566</v>
       </c>
       <c r="S3">
-        <v>0.006111058419283047</v>
+        <v>0.2112257652846279</v>
       </c>
       <c r="T3">
-        <v>0.006877255680863064</v>
+        <v>0.2617999196997421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H4">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I4">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J4">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.693891333333333</v>
+        <v>2.693222</v>
       </c>
       <c r="N4">
-        <v>5.081674</v>
+        <v>8.079666</v>
       </c>
       <c r="O4">
-        <v>0.06271940007476701</v>
+        <v>0.06139063118282826</v>
       </c>
       <c r="P4">
-        <v>0.0704030882476754</v>
+        <v>0.07608949737890039</v>
       </c>
       <c r="Q4">
-        <v>0.1236890744208889</v>
+        <v>10.952663261722</v>
       </c>
       <c r="R4">
-        <v>1.113201669788</v>
+        <v>98.57396935549799</v>
       </c>
       <c r="S4">
-        <v>0.001097832309168203</v>
+        <v>0.06033274319559649</v>
       </c>
       <c r="T4">
-        <v>0.001235477222904346</v>
+        <v>0.07477831742064388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H5">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I5">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J5">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.84266</v>
+        <v>25.4243835</v>
       </c>
       <c r="N5">
-        <v>17.68532</v>
+        <v>50.848767</v>
       </c>
       <c r="O5">
-        <v>0.327415530944216</v>
+        <v>0.5795359426364719</v>
       </c>
       <c r="P5">
-        <v>0.2450179103674062</v>
+        <v>0.4788634979919735</v>
       </c>
       <c r="Q5">
-        <v>0.6456969283066667</v>
+        <v>103.3946370230085</v>
       </c>
       <c r="R5">
-        <v>3.87418156984</v>
+        <v>620.367822138051</v>
       </c>
       <c r="S5">
-        <v>0.005731039326994984</v>
+        <v>0.5695493355586211</v>
       </c>
       <c r="T5">
-        <v>0.004299726830130127</v>
+        <v>0.4706116860739492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H6">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I6">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J6">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.613683666666666</v>
+        <v>3.136534000000001</v>
       </c>
       <c r="N6">
-        <v>7.841050999999999</v>
+        <v>9.409602000000001</v>
       </c>
       <c r="O6">
-        <v>0.09677638012112777</v>
+        <v>0.07149570365398808</v>
       </c>
       <c r="P6">
-        <v>0.1086323533362281</v>
+        <v>0.08861404502556121</v>
       </c>
       <c r="Q6">
-        <v>0.1908529237957778</v>
+        <v>12.755502781034</v>
       </c>
       <c r="R6">
-        <v>1.717676314162</v>
+        <v>114.799525029306</v>
       </c>
       <c r="S6">
-        <v>0.001693961305986107</v>
+        <v>0.07026368429570866</v>
       </c>
       <c r="T6">
-        <v>0.001906348166791365</v>
+        <v>0.08708704111753203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H7">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I7">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J7">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.428211999999999</v>
+        <v>3.187097666666667</v>
       </c>
       <c r="N7">
-        <v>13.284636</v>
+        <v>9.561293000000001</v>
       </c>
       <c r="O7">
-        <v>0.1639625840090593</v>
+        <v>0.07264827682158614</v>
       </c>
       <c r="P7">
-        <v>0.1840494688652294</v>
+        <v>0.09004258080252311</v>
       </c>
       <c r="Q7">
-        <v>18.008435579212</v>
+        <v>0.2272634356828889</v>
       </c>
       <c r="R7">
-        <v>162.075920212908</v>
+        <v>2.045370921146</v>
       </c>
       <c r="S7">
-        <v>0.1598382274990514</v>
+        <v>0.001251880586041952</v>
       </c>
       <c r="T7">
-        <v>0.179878555017299</v>
+        <v>0.001551620544292097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H8">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I8">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J8">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>28.287022</v>
       </c>
       <c r="O8">
-        <v>0.3491261048508298</v>
+        <v>0.2149294457051256</v>
       </c>
       <c r="P8">
-        <v>0.3918971791834611</v>
+        <v>0.2663903788010418</v>
       </c>
       <c r="Q8">
-        <v>38.34542500184067</v>
+        <v>0.6723573689204444</v>
       </c>
       <c r="R8">
-        <v>345.108825016566</v>
+        <v>6.051216320284</v>
       </c>
       <c r="S8">
-        <v>0.3403440980774085</v>
+        <v>0.003703680420497687</v>
       </c>
       <c r="T8">
-        <v>0.3830160377072092</v>
+        <v>0.00459045910129964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H9">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I9">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J9">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.693891333333333</v>
+        <v>2.693222</v>
       </c>
       <c r="N9">
-        <v>5.081674</v>
+        <v>8.079666</v>
       </c>
       <c r="O9">
-        <v>0.06271940007476701</v>
+        <v>0.06139063118282826</v>
       </c>
       <c r="P9">
-        <v>0.0704030882476754</v>
+        <v>0.07608949737890039</v>
       </c>
       <c r="Q9">
-        <v>6.888634273724666</v>
+        <v>0.1920464788946667</v>
       </c>
       <c r="R9">
-        <v>61.997708463522</v>
+        <v>1.728418310052</v>
       </c>
       <c r="S9">
-        <v>0.06114174034486263</v>
+        <v>0.001057887987231772</v>
       </c>
       <c r="T9">
-        <v>0.06880761928207728</v>
+        <v>0.001311179958256519</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H10">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I10">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J10">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.84266</v>
+        <v>25.4243835</v>
       </c>
       <c r="N10">
-        <v>17.68532</v>
+        <v>50.848767</v>
       </c>
       <c r="O10">
-        <v>0.327415530944216</v>
+        <v>0.5795359426364719</v>
       </c>
       <c r="P10">
-        <v>0.2450179103674062</v>
+        <v>0.4788634979919735</v>
       </c>
       <c r="Q10">
-        <v>35.96089639766</v>
+        <v>1.812944989029</v>
       </c>
       <c r="R10">
-        <v>215.76537838596</v>
+        <v>10.877669934174</v>
       </c>
       <c r="S10">
-        <v>0.3191796374646837</v>
+        <v>0.009986607077850871</v>
       </c>
       <c r="T10">
-        <v>0.2394653347384557</v>
+        <v>0.008251811918024271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H11">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I11">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J11">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.613683666666666</v>
+        <v>3.136534000000001</v>
       </c>
       <c r="N11">
-        <v>7.841050999999999</v>
+        <v>9.409602000000001</v>
       </c>
       <c r="O11">
-        <v>0.09677638012112777</v>
+        <v>0.07149570365398808</v>
       </c>
       <c r="P11">
-        <v>0.1086323533362281</v>
+        <v>0.08861404502556121</v>
       </c>
       <c r="Q11">
-        <v>10.62920066510033</v>
+        <v>0.2236578754493334</v>
       </c>
       <c r="R11">
-        <v>95.66280598590299</v>
+        <v>2.012920879044</v>
       </c>
       <c r="S11">
-        <v>0.09434204245939928</v>
+        <v>0.001232019358279422</v>
       </c>
       <c r="T11">
-        <v>0.1061705359256322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.031915</v>
-      </c>
-      <c r="H12">
-        <v>0.06383</v>
-      </c>
-      <c r="I12">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J12">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.428211999999999</v>
-      </c>
-      <c r="N12">
-        <v>13.284636</v>
-      </c>
-      <c r="O12">
-        <v>0.1639625840090593</v>
-      </c>
-      <c r="P12">
-        <v>0.1840494688652294</v>
-      </c>
-      <c r="Q12">
-        <v>0.14132638598</v>
-      </c>
-      <c r="R12">
-        <v>0.8479583158799999</v>
-      </c>
-      <c r="S12">
-        <v>0.001254376535625669</v>
-      </c>
-      <c r="T12">
-        <v>0.00094109918595575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.031915</v>
-      </c>
-      <c r="H13">
-        <v>0.06383</v>
-      </c>
-      <c r="I13">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J13">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.429007333333333</v>
-      </c>
-      <c r="N13">
-        <v>28.287022</v>
-      </c>
-      <c r="O13">
-        <v>0.3491261048508298</v>
-      </c>
-      <c r="P13">
-        <v>0.3918971791834611</v>
-      </c>
-      <c r="Q13">
-        <v>0.3009267690433333</v>
-      </c>
-      <c r="R13">
-        <v>1.80556061426</v>
-      </c>
-      <c r="S13">
-        <v>0.00267094835413835</v>
-      </c>
-      <c r="T13">
-        <v>0.002003885795388928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.031915</v>
-      </c>
-      <c r="H14">
-        <v>0.06383</v>
-      </c>
-      <c r="I14">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J14">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.693891333333333</v>
-      </c>
-      <c r="N14">
-        <v>5.081674</v>
-      </c>
-      <c r="O14">
-        <v>0.06271940007476701</v>
-      </c>
-      <c r="P14">
-        <v>0.0704030882476754</v>
-      </c>
-      <c r="Q14">
-        <v>0.05406054190333333</v>
-      </c>
-      <c r="R14">
-        <v>0.3243632514199999</v>
-      </c>
-      <c r="S14">
-        <v>0.0004798274207361824</v>
-      </c>
-      <c r="T14">
-        <v>0.0003599917426937779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.031915</v>
-      </c>
-      <c r="H15">
-        <v>0.06383</v>
-      </c>
-      <c r="I15">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J15">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.84266</v>
-      </c>
-      <c r="N15">
-        <v>17.68532</v>
-      </c>
-      <c r="O15">
-        <v>0.327415530944216</v>
-      </c>
-      <c r="P15">
-        <v>0.2450179103674062</v>
-      </c>
-      <c r="Q15">
-        <v>0.2822134939</v>
-      </c>
-      <c r="R15">
-        <v>1.1288539756</v>
-      </c>
-      <c r="S15">
-        <v>0.00250485415253734</v>
-      </c>
-      <c r="T15">
-        <v>0.001252848798820453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.031915</v>
-      </c>
-      <c r="H16">
-        <v>0.06383</v>
-      </c>
-      <c r="I16">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J16">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.613683666666666</v>
-      </c>
-      <c r="N16">
-        <v>7.841050999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.09677638012112777</v>
-      </c>
-      <c r="P16">
-        <v>0.1086323533362281</v>
-      </c>
-      <c r="Q16">
-        <v>0.08341571422166665</v>
-      </c>
-      <c r="R16">
-        <v>0.50049428533</v>
-      </c>
-      <c r="S16">
-        <v>0.0007403763557423919</v>
-      </c>
-      <c r="T16">
-        <v>0.0005554692438044609</v>
+        <v>0.001527003908029177</v>
       </c>
     </row>
   </sheetData>
